--- a/combo.xlsx
+++ b/combo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>spades</t>
   </si>
@@ -28,72 +28,15 @@
     <t>hearts</t>
   </si>
   <si>
-    <t>Phisical</t>
-  </si>
-  <si>
-    <t>Magical</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Понижение магического сопротивления на *n* раундов.</t>
-  </si>
-  <si>
-    <t>Понижение физического сопротивления на *n* раундов</t>
-  </si>
-  <si>
-    <t>Обычный физический урон</t>
-  </si>
-  <si>
-    <t>Урон по HP игрока игнорирующий физическую сопротивляемость</t>
-  </si>
-  <si>
-    <t>Обычный магический урон</t>
-  </si>
-  <si>
-    <t>Понижение магического сопротивления на *n* раундов</t>
-  </si>
-  <si>
-    <t>Урон по HP игрока игнорирующий магическую сопротивляемость</t>
-  </si>
-  <si>
-    <t>Увеличение физической защиты на *n* раундов</t>
-  </si>
-  <si>
-    <t>Увеличение магической защиты на *n* раундов</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
-    <t>Увеличение HP на *n* раундов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kkkkkkkkombo : 3x </t>
-  </si>
-  <si>
-    <t>kkkkkkkkkkombo: 2х</t>
-  </si>
-  <si>
-    <t>Снятие всех негативных эффектов</t>
-  </si>
-  <si>
-    <t>Регенерация %HP на *n* раундов</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Моментальное восстановление HP</t>
-  </si>
-  <si>
     <t>spades+spades</t>
   </si>
   <si>
+    <t>N карта дает +% по масте 1 карте из первых трех</t>
+  </si>
+  <si>
     <t>spades+diamonds</t>
   </si>
   <si>
@@ -139,23 +82,676 @@
     <t>hearts+hearts</t>
   </si>
   <si>
-    <t>смешанный урон, наносится игннорируя все сопротивления</t>
-  </si>
-  <si>
-    <t>смешанный урон, игнорирующий маг и физ сопротивляемость на % от последнего cross</t>
-  </si>
-  <si>
-    <t>смешанный урон, игнорирующий физическую сопроттивляемость на % от последнего diamonds</t>
-  </si>
-  <si>
-    <t>смешанный урон, игнорирующий магическую сопротивляемость на % от последнего spades</t>
+    <t>spades Атака(урон)</t>
+  </si>
+  <si>
+    <t>diamonds Магия(Мана)</t>
+  </si>
+  <si>
+    <t>cross Защита(броня)</t>
+  </si>
+  <si>
+    <t>hearts Лечение(хп)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">END </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MDEF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DDG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Сила, дает множитель для урона</t>
+  </si>
+  <si>
+    <t>Защита( магическая броня)</t>
+  </si>
+  <si>
+    <t>Хп</t>
+  </si>
+  <si>
+    <t>Мп</t>
+  </si>
+  <si>
+    <t>Ловкость,  повышает шанс на додж</t>
+  </si>
+  <si>
+    <t>Выносливость, количество жизней ( вомзонжо базовое восстановление здоровья)</t>
+  </si>
+  <si>
+    <t>Интеллект, сила магии</t>
+  </si>
+  <si>
+    <t>Атака, Базовая атака ( модификатор)</t>
+  </si>
+  <si>
+    <t>Магическая атака (модификатор)</t>
+  </si>
+  <si>
+    <t>Защита( броня), дает числовое уменьшение урона</t>
+  </si>
+  <si>
+    <t>Блок рейт, дает возможность полнстью заблокировать урон противника ( физический )</t>
+  </si>
+  <si>
+    <t>Додж, дает возможность полнстью уклониться от урона и магии</t>
+  </si>
+  <si>
+    <t>Комбо = 1карта+2карта, +3карта эффекта, +Nкарта</t>
+  </si>
+  <si>
+    <t>3карта эффекта, дает бонусы</t>
+  </si>
+  <si>
+    <t>можно будет выкладывать 2х комбо, без бонусов, если выкладываются 3 карты, считаем что это 3х комбо, а остальные идут как +%</t>
+  </si>
+  <si>
+    <t>Эффект запрета восстановления маны( на врага )</t>
+  </si>
+  <si>
+    <t>эффект кровотечение ( на врага )</t>
+  </si>
+  <si>
+    <t>1ход = я сходил - просчитали данные - врагсходил - просчитали данные - я сходил - просчитали данные - эффект исчез</t>
+  </si>
+  <si>
+    <t>Основные комбо</t>
+  </si>
+  <si>
+    <t>Доп.эффкты</t>
+  </si>
+  <si>
+    <t>% урон по мане врага</t>
+  </si>
+  <si>
+    <t>Прямолинейное игнорирование брони врага.</t>
+  </si>
+  <si>
+    <t>% уменьшение урона врага на 1 ход</t>
+  </si>
+  <si>
+    <t>Отмена всех отрицательных эффектов на себе</t>
+  </si>
+  <si>
+    <t>Отмена всех положительных эффектов на враге</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по ХП врага</t>
+  </si>
+  <si>
+    <t>% увеличение шанса на додж (k1+k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное уменьшение урона врага на 1 ход (k1+k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейный Урон по мане врага (k1-k1%(k2*3))</t>
+  </si>
+  <si>
+    <t>k1 = достоинтсво карты 1, k2 = достоинство карты 2, k3 = достоинство карты 3, kX%kY = берем процент равный карте Y, от карты X, %kn = берем процент достоинства карты n, от предыдущей суммы(карты)</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по врагу игнорирующий % от брони врага ( урон = k1, % пробивания = k2% )</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по врагу + восстановление своих ХП от % нанесенного урона ( урон = k1, % урона = k2% )</t>
+  </si>
+  <si>
+    <t>Прямолинейниый крит удар по врагу (k1+k2*2 )</t>
+  </si>
+  <si>
+    <t>Прямолинейное отянтие ХП у врага + Прямолинейное восстановление своих ХП (урон по ХП = k2%k1, восстановление = k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение своих ХП на 1 ход (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>% увеличение шанса на блок (k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное уменьшение брони врага на 1 ход (k2-k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение атаки (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолиненое восстановление своей маны (k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение своей брони (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное восстановление своих ХП (k1+k2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +760,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA71D5D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0086B3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +801,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,24 +837,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,275 +1186,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/combo.xlsx
+++ b/combo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>spades</t>
   </si>
@@ -91,9 +91,6 @@
     <t>cross Защита(броня)</t>
   </si>
   <si>
-    <t>hearts Лечение(хп)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">STR </t>
     </r>
@@ -589,8 +586,167 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SP </t>
+    <t>Сила, дает множитель для урона</t>
+  </si>
+  <si>
+    <t>Защита( магическая броня)</t>
+  </si>
+  <si>
+    <t>Хп</t>
+  </si>
+  <si>
+    <t>Мп</t>
+  </si>
+  <si>
+    <t>Ловкость,  повышает шанс на додж</t>
+  </si>
+  <si>
+    <t>Выносливость, количество жизней ( вомзонжо базовое восстановление здоровья)</t>
+  </si>
+  <si>
+    <t>Интеллект, сила магии</t>
+  </si>
+  <si>
+    <t>Атака, Базовая атака ( модификатор)</t>
+  </si>
+  <si>
+    <t>Магическая атака (модификатор)</t>
+  </si>
+  <si>
+    <t>Защита( броня), дает числовое уменьшение урона</t>
+  </si>
+  <si>
+    <t>Блок рейт, дает возможность полнстью заблокировать урон противника ( физический )</t>
+  </si>
+  <si>
+    <t>Додж, дает возможность полнстью уклониться от урона и магии</t>
+  </si>
+  <si>
+    <t>Комбо = 1карта+2карта, +3карта эффекта, +Nкарта</t>
+  </si>
+  <si>
+    <t>3карта эффекта, дает бонусы</t>
+  </si>
+  <si>
+    <t>можно будет выкладывать 2х комбо, без бонусов, если выкладываются 3 карты, считаем что это 3х комбо, а остальные идут как +%</t>
+  </si>
+  <si>
+    <t>1ход = я сходил - просчитали данные - врагсходил - просчитали данные - я сходил - просчитали данные - эффект исчез</t>
+  </si>
+  <si>
+    <t>Основные комбо</t>
+  </si>
+  <si>
+    <t>Доп.эффкты</t>
+  </si>
+  <si>
+    <t>% урон по мане врага</t>
+  </si>
+  <si>
+    <t>Прямолинейное игнорирование брони врага.</t>
+  </si>
+  <si>
+    <t>% уменьшение урона врага на 1 ход</t>
+  </si>
+  <si>
+    <t>Отмена всех отрицательных эффектов на себе</t>
+  </si>
+  <si>
+    <t>Отмена всех положительных эффектов на враге</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по ХП врага</t>
+  </si>
+  <si>
+    <t>% увеличение шанса на додж (k1+k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное уменьшение урона врага на 1 ход (k1+k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейный Урон по мане врага (k1-k1%(k2*3))</t>
+  </si>
+  <si>
+    <t>k1 = достоинтсво карты 1, k2 = достоинство карты 2, k3 = достоинство карты 3, kX%kY = берем процент равный карте Y, от карты X, %kn = берем процент достоинства карты n, от предыдущей суммы(карты)</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по врагу игнорирующий % от брони врага ( урон = k1, % пробивания = k2% )</t>
+  </si>
+  <si>
+    <t>Прямолинейный урон по врагу + восстановление своих ХП от % нанесенного урона ( урон = k1, % урона = k2% )</t>
+  </si>
+  <si>
+    <t>Прямолинейниый крит удар по врагу (k1+k2*2 )</t>
+  </si>
+  <si>
+    <t>Прямолинейное отянтие ХП у врага + Прямолинейное восстановление своих ХП (урон по ХП = k2%k1, восстановление = k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение своих ХП на 1 ход (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>% увеличение шанса на блок (k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное уменьшение брони врага на 1 ход (k2-k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение атаки (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолиненое восстановление своей маны (k2%k1)</t>
+  </si>
+  <si>
+    <t>Прямолинейное увеличение своей брони (k1-k1%k2)</t>
+  </si>
+  <si>
+    <t>Прямолинейное восстановление своих ХП (k1+k2)</t>
+  </si>
+  <si>
+    <t>hearts Бафф(хп)</t>
+  </si>
+  <si>
+    <t>% урон по ХП врага от текущей Маны врага</t>
+  </si>
+  <si>
+    <t>Эффект запрета восстановления маны на 1 ход</t>
+  </si>
+  <si>
+    <t>% высасывание маны от  урона</t>
+  </si>
+  <si>
+    <t>Эффект заморозки Маны врага</t>
+  </si>
+  <si>
+    <t>% уменьшение урона врага</t>
+  </si>
+  <si>
+    <t>% от урона отнимает ХП врага</t>
+  </si>
+  <si>
+    <t>Добавляет прямолинейное пробивание брони</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эффект пробивание блока. ( т.е. BR = 0% ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% эффект кровотечения на 1 ход </t>
+  </si>
+  <si>
+    <t>Запрет на восстановление ХП на 1 ход</t>
+  </si>
+  <si>
+    <t>% восстановление своей маны от урона</t>
+  </si>
+  <si>
+    <t>Эффект сломанного оружия ( враг нанесет только 100% - k3% от урона )</t>
+  </si>
+  <si>
+    <t>Эффект повышенной затраты маны на следующую атаку на 1 ход ( на %k3 )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MP </t>
     </r>
     <r>
       <rPr>
@@ -624,127 +780,43 @@
     </r>
   </si>
   <si>
-    <t>Сила, дает множитель для урона</t>
-  </si>
-  <si>
-    <t>Защита( магическая броня)</t>
-  </si>
-  <si>
-    <t>Хп</t>
-  </si>
-  <si>
-    <t>Мп</t>
-  </si>
-  <si>
-    <t>Ловкость,  повышает шанс на додж</t>
-  </si>
-  <si>
-    <t>Выносливость, количество жизней ( вомзонжо базовое восстановление здоровья)</t>
-  </si>
-  <si>
-    <t>Интеллект, сила магии</t>
-  </si>
-  <si>
-    <t>Атака, Базовая атака ( модификатор)</t>
-  </si>
-  <si>
-    <t>Магическая атака (модификатор)</t>
-  </si>
-  <si>
-    <t>Защита( броня), дает числовое уменьшение урона</t>
-  </si>
-  <si>
-    <t>Блок рейт, дает возможность полнстью заблокировать урон противника ( физический )</t>
-  </si>
-  <si>
-    <t>Додж, дает возможность полнстью уклониться от урона и магии</t>
-  </si>
-  <si>
-    <t>Комбо = 1карта+2карта, +3карта эффекта, +Nкарта</t>
-  </si>
-  <si>
-    <t>3карта эффекта, дает бонусы</t>
-  </si>
-  <si>
-    <t>можно будет выкладывать 2х комбо, без бонусов, если выкладываются 3 карты, считаем что это 3х комбо, а остальные идут как +%</t>
-  </si>
-  <si>
-    <t>Эффект запрета восстановления маны( на врага )</t>
-  </si>
-  <si>
-    <t>эффект кровотечение ( на врага )</t>
-  </si>
-  <si>
-    <t>1ход = я сходил - просчитали данные - врагсходил - просчитали данные - я сходил - просчитали данные - эффект исчез</t>
-  </si>
-  <si>
-    <t>Основные комбо</t>
-  </si>
-  <si>
-    <t>Доп.эффкты</t>
-  </si>
-  <si>
-    <t>% урон по мане врага</t>
-  </si>
-  <si>
-    <t>Прямолинейное игнорирование брони врага.</t>
-  </si>
-  <si>
-    <t>% уменьшение урона врага на 1 ход</t>
-  </si>
-  <si>
-    <t>Отмена всех отрицательных эффектов на себе</t>
-  </si>
-  <si>
-    <t>Отмена всех положительных эффектов на враге</t>
-  </si>
-  <si>
-    <t>Прямолинейный урон по ХП врага</t>
-  </si>
-  <si>
-    <t>% увеличение шанса на додж (k1+k2)</t>
-  </si>
-  <si>
-    <t>Прямолинейное уменьшение урона врага на 1 ход (k1+k2)</t>
-  </si>
-  <si>
-    <t>Прямолинейный Урон по мане врага (k1-k1%(k2*3))</t>
-  </si>
-  <si>
-    <t>k1 = достоинтсво карты 1, k2 = достоинство карты 2, k3 = достоинство карты 3, kX%kY = берем процент равный карте Y, от карты X, %kn = берем процент достоинства карты n, от предыдущей суммы(карты)</t>
-  </si>
-  <si>
-    <t>Прямолинейный урон по врагу игнорирующий % от брони врага ( урон = k1, % пробивания = k2% )</t>
-  </si>
-  <si>
-    <t>Прямолинейный урон по врагу + восстановление своих ХП от % нанесенного урона ( урон = k1, % урона = k2% )</t>
-  </si>
-  <si>
-    <t>Прямолинейниый крит удар по врагу (k1+k2*2 )</t>
-  </si>
-  <si>
-    <t>Прямолинейное отянтие ХП у врага + Прямолинейное восстановление своих ХП (урон по ХП = k2%k1, восстановление = k1%k2)</t>
-  </si>
-  <si>
-    <t>Прямолинейное увеличение своих ХП на 1 ход (k1-k1%k2)</t>
-  </si>
-  <si>
-    <t>% увеличение шанса на блок (k2%k1)</t>
-  </si>
-  <si>
-    <t>Прямолинейное уменьшение брони врага на 1 ход (k2-k2%k1)</t>
-  </si>
-  <si>
-    <t>Прямолинейное увеличение атаки (k1-k1%k2)</t>
-  </si>
-  <si>
-    <t>Прямолиненое восстановление своей маны (k2%k1)</t>
-  </si>
-  <si>
-    <t>Прямолинейное увеличение своей брони (k1-k1%k2)</t>
-  </si>
-  <si>
-    <t>Прямолинейное восстановление своих ХП (k1+k2)</t>
+    <t>Эффект сломанных доспехов ( броня врага будем иметь 100% - k3% от брони)</t>
+  </si>
+  <si>
+    <t>Эффект повышенной затраты маны на следующую защиту на 1 ход ( на %k3)</t>
+  </si>
+  <si>
+    <t>Заточка оружия( увеличение следующей атаки на 1 ход на %k3 )</t>
+  </si>
+  <si>
+    <t>Заморозка своих хп на 1 ход</t>
+  </si>
+  <si>
+    <t>Эффект затупления вражеского оружия на 1ход при уданой блокировки на %k3</t>
+  </si>
+  <si>
+    <t>Невосприимчивость к эффекту пробивания брони на 1 ход.</t>
+  </si>
+  <si>
+    <t>Эффект возврата урона при удачной блокировки на %k3</t>
+  </si>
+  <si>
+    <t>Регенарация на N ходов на %k3 от максимального здоровья</t>
+  </si>
+  <si>
+    <t>Эффект уменьшения лечения на 1 ход на %k3</t>
+  </si>
+  <si>
+    <t>Регенерация на N ходов на %k3 от максимальной маны</t>
+  </si>
+  <si>
+    <t>Уменьшение хатрат маны на защиту на 1 ход на %k3</t>
+  </si>
+  <si>
+    <t>Уменьшение затрат маны на атаку на 1 ход на %k3</t>
+  </si>
+  <si>
+    <t>Уменьшение затрат маны на лечение на 1 ход на %k3</t>
   </si>
 </sst>
 </file>
@@ -854,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +957,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1188,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1292,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1223,7 +1302,7 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1231,14 +1310,14 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1248,7 +1327,7 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -1269,16 +1348,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1286,16 +1365,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1303,33 +1382,33 @@
         <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1338,7 +1417,7 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -1357,21 +1436,21 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="3"/>
       <c r="I13" s="3"/>
@@ -1382,16 +1461,22 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1401,16 +1486,22 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1420,16 +1511,22 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1439,14 +1536,22 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1460,10 +1565,18 @@
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1473,195 +1586,273 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/combo.xlsx
+++ b/combo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="2" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2361,7 @@
   <dimension ref="A6:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/combo.xlsx
+++ b/combo.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="2" r:id="rId1"/>
     <sheet name="race" sheetId="3" r:id="rId2"/>
-    <sheet name="combo_16" sheetId="5" r:id="rId3"/>
-    <sheet name="combo_64" sheetId="1" r:id="rId4"/>
+    <sheet name="combo_64" sheetId="1" r:id="rId3"/>
+    <sheet name="combo_16" sheetId="5" r:id="rId4"/>
     <sheet name="skills" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
   <si>
     <t>spades</t>
   </si>
@@ -377,15 +377,6 @@
     <t>\\когда запас здоровья меньеш 25%, увеличивает всю силу на х2(х1.5), действует пока запас здоровья не увеличится свыше 25%</t>
   </si>
   <si>
-    <t>N карта дает +% по масти 2,3,4 карте в начале.</t>
-  </si>
-  <si>
-    <t>4карта эффекта, дает бонусы</t>
-  </si>
-  <si>
-    <t>Комбо = 1карта+ 2и3 карта,+( 4 карта эффекта), +Nкарта = 1 карта указывает атаку( пики ), магия на врага( буби ), защиту( крести ), бафф\лечение( червы ), 2+3 карты указывают комбо из таблицы, 4 карта добавляет эффект из таблицы</t>
-  </si>
-  <si>
     <t>spades Атака(урон) на врага</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
     <t>урон по мане с вампиризмом = (ATK+(k2+kn)%k1)%k1; MP+_%((k3+kn)%k1) overmana не может быть!</t>
   </si>
   <si>
-    <t>урон по мане (х2) = (ATK+((k2+kn)*2)%(k3+kn))%k1</t>
-  </si>
-  <si>
     <t>критчиеский урон (х2) с вампиризмом = ATK+((k2+kn)*2)%k1, HP+_%((k3+kn)%k1) overheal не может быть!</t>
   </si>
   <si>
@@ -452,18 +440,6 @@
     <t>критический урон (х3) = ATK+((k2+k3+kn)*3)%k1</t>
   </si>
   <si>
-    <t>бронебойный урон с вампиризмом = ATK; DEF%((k3+kn)%k1); HP+_%((k3+kn)%k1) overheal не может быть!</t>
-  </si>
-  <si>
-    <t>бронебойный урон с использованием маны = ATK+ MP+(k3+kn)%k1; DEF%((k2+kn)%k1)</t>
-  </si>
-  <si>
-    <t>бронебойный урон (x2) = ATK; DEF%(((k2+k3+kn)*2)%k1)</t>
-  </si>
-  <si>
-    <t>бронебойный урон = ATK+(k3+kn)%k1; DEF%((k2+kn)%k1)</t>
-  </si>
-  <si>
     <t>\\увеличенный додж +0,25% за лвл</t>
   </si>
   <si>
@@ -638,16 +614,64 @@
     <t>увеличение br% = INT%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
-    <t>% урон = (ATK+(k2+kn)%(k3+kn))%k1</t>
-  </si>
-  <si>
-    <t>% урон по мане = (ATK+(k2+kn)%(k3+kn))%k1</t>
-  </si>
-  <si>
-    <t>% урон с пробиванием = ATK+(k2+kn)%k1; (k3+kn)%k1</t>
-  </si>
-  <si>
-    <t>% урон с вампиризмом = ATK+(k2+kn)%k1; (k3+kn)%k1</t>
+    <t>Комбо = 1карта+ 2и3 карта, +Nкарта = 1 карта указывает атаку( пики ), магия на врага( буби ), защиту( крести ), бафф\лечение( червы ), 2+3 карты указывают комбо из таблицы, 4 карта добавляет эффект из таблицы</t>
+  </si>
+  <si>
+    <t>N карта дает +% по масти первым 3-м картам</t>
+  </si>
+  <si>
+    <t>бронебойный (x2) урон с вампиризмом = ATK; DEF%(((k2+kn)*2%k1); HP+_%((k3+kn)%k1) overheal не может быть!</t>
+  </si>
+  <si>
+    <t>бронебойный (x3) урон = ATK; DEF%(((k2+k3+kn)*3)%k1)</t>
+  </si>
+  <si>
+    <t>бронебойный (x2) урон с использованием маны = ATK+ MP+(k3+kn)%k1; DEF%(((k2+kn)*2)%k1)</t>
+  </si>
+  <si>
+    <t>бронебойный(x2) урон = ATK+(k3+kn)%k1; DEF%(((k2+kn)*2)%k1)</t>
+  </si>
+  <si>
+    <t>урон по мане  = (ATK+((k2+kn)*2)%(k3+kn))%k1</t>
+  </si>
+  <si>
+    <t>урон с вампиризмом = ATK+(k2+kn)%k1, HP+_%((k3+kn)%k1) overheal не может быть!</t>
+  </si>
+  <si>
+    <t>урон с маной = ATK+(k2+kn)%k1 + MP+(k3+kn)%k1</t>
+  </si>
+  <si>
+    <t>урон с пробиванием = ATK+(k2+kn)%k1; DEF%((k3+kn)%k1)</t>
+  </si>
+  <si>
+    <t>урон = ATK+(k2+k3+kn)%k1</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>пробивание брони</t>
+  </si>
+  <si>
+    <t>вампиризм</t>
+  </si>
+  <si>
+    <t>Сила восстановления жизней</t>
+  </si>
+  <si>
+    <t>сила восстановления маны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\ пришлось внести дополнительные статы, так как комбо могут изменять их множитель, для взаимодейсвтия. Что бы не писать в какие то переменные,  решил так бороться </t>
   </si>
 </sst>
 </file>
@@ -694,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -1166,16 +1199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,7 +1270,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1293,6 +1326,47 @@
       </c>
       <c r="D12" s="17" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1334,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1934,7 +2008,7 @@
         <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2299,7 +2373,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2348,7 +2422,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2358,146 +2432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,18 +2458,15 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -2545,7 +2480,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -2556,19 +2491,19 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2576,16 +2511,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G8" s="34"/>
     </row>
@@ -2594,16 +2529,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2611,16 +2546,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2628,16 +2563,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2649,16 +2584,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2673,16 +2608,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2697,16 +2632,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2721,16 +2656,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2745,16 +2680,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2769,16 +2704,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2793,16 +2728,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -2810,69 +2745,69 @@
         <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>178</v>
+      <c r="B20" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>179</v>
+      <c r="B21" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>180</v>
+      <c r="B22" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>181</v>
+      <c r="B23" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2895,6 +2830,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/combo.xlsx
+++ b/combo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
   <si>
     <t>spades</t>
   </si>
@@ -341,15 +341,6 @@
     <t>\\Наделяет способностью вампиризм за каждую обычную атаку, а за каст вампиризм удвоенные рейты</t>
   </si>
   <si>
-    <t>\\увеличенный блокрейт</t>
-  </si>
-  <si>
-    <t>\\повышенная бронебойность</t>
-  </si>
-  <si>
-    <t>\\обладает врожденной регенерацией от недостающего % здоровья каждый ход.</t>
-  </si>
-  <si>
     <t xml:space="preserve">\\универсальный </t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>уменьшение выносливости = AGI%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
-    <t>Уменьшение крит урона = AGI%k1+(k2+kn)%(k3+kn)</t>
-  </si>
-  <si>
     <t>уменьшение урона = AGI%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
@@ -554,9 +542,6 @@
     <t>восстановление выносливости = END%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
-    <t>восстановление крит урона = END%k1+(k2+kn)%(k3+kn)</t>
-  </si>
-  <si>
     <t>восстановление силы лечения = END%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
@@ -596,9 +581,6 @@
     <t>увеличение выносливости = INT%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
-    <t>увеличение крит урона = INT%k1+(k2+kn)%(k3+kn)</t>
-  </si>
-  <si>
     <t>увеличение силы лечения = INT%k1+(k2+kn)%(k3+kn)</t>
   </si>
   <si>
@@ -662,9 +644,6 @@
     <t>пробивание брони</t>
   </si>
   <si>
-    <t>вампиризм</t>
-  </si>
-  <si>
     <t>Сила восстановления жизней</t>
   </si>
   <si>
@@ -672,6 +651,21 @@
   </si>
   <si>
     <t xml:space="preserve">\\ пришлось внести дополнительные статы, так как комбо могут изменять их множитель, для взаимодейсвтия. Что бы не писать в какие то переменные,  решил так бороться </t>
+  </si>
+  <si>
+    <t>вампиризм ( life leech)</t>
+  </si>
+  <si>
+    <t>\\ защита это порог, который урон должен пройти, что бы нанести хоть какой то урон</t>
+  </si>
+  <si>
+    <t>\\обладает врожденной регенерацией от недостающего % здоровья каждый ход. = currHP = currHP + (baseHP%currHP)/10</t>
+  </si>
+  <si>
+    <t>\\повышенная бронебойность = enemyDEF - enemyDEF%10</t>
+  </si>
+  <si>
+    <t>\\увеличенный блокрейт, если использует щит + 5% к блокированию атаки.</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,14 +1206,14 @@
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1222,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1231,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
@@ -1246,7 +1240,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>24</v>
       </c>
@@ -1255,14 +1249,14 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1270,10 +1264,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -1283,8 +1277,11 @@
       <c r="D8" s="19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>30</v>
       </c>
@@ -1328,45 +1325,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>188</v>
       </c>
       <c r="D16" s="39"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1377,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1446,13 +1443,13 @@
         <v>74</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>29</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1996,7 +1993,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>68</v>
@@ -2008,7 +2005,7 @@
         <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2096,7 +2093,7 @@
         <v>16.5</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2153,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,7 +2194,7 @@
         <v>34.5</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2241,7 +2238,7 @@
         <v>38.5</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2285,7 +2282,7 @@
         <v>39.5</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,7 +2326,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,12 +2414,12 @@
         <v>22.5</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2432,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,142 +2455,161 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>136</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2605,19 +2621,19 @@
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2627,21 +2643,21 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2651,22 +2667,16 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>163</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2677,19 +2687,19 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2699,131 +2709,107 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2869,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,16 +2889,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,21 +2906,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2942,7 +2928,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2950,7 +2936,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2958,7 +2944,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>

--- a/combo.xlsx
+++ b/combo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="25185" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
   <si>
     <t>spades</t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>\\увеличенный блокрейт, если использует щит + 5% к блокированию атаки.</t>
+  </si>
+  <si>
+    <t>формула для пробивания брони простая = def - def(из комбо) - атака</t>
+  </si>
+  <si>
+    <t>формулы для урона = def - атака</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,6 +1372,16 @@
         <v>182</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1376,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1415,7 @@
     <col min="15" max="15" width="6.140625" customWidth="1"/>
     <col min="17" max="17" width="5.7109375" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1463,6 +1479,9 @@
       <c r="R2" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="S2" s="36" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1519,6 +1538,9 @@
       <c r="R3" s="18">
         <v>1.75</v>
       </c>
+      <c r="S3" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1575,6 +1597,9 @@
       <c r="R4" s="18">
         <v>2.5</v>
       </c>
+      <c r="S4" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1631,6 +1656,9 @@
       <c r="R5" s="18">
         <v>2</v>
       </c>
+      <c r="S5" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1687,6 +1715,9 @@
       <c r="R6" s="18">
         <v>0.75</v>
       </c>
+      <c r="S6" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1743,6 +1774,9 @@
       <c r="R7" s="18">
         <v>0.5</v>
       </c>
+      <c r="S7" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1799,6 +1833,9 @@
       <c r="R8" s="18">
         <v>0.5</v>
       </c>
+      <c r="S8" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1855,6 +1892,9 @@
       <c r="R9" s="18">
         <v>0.5</v>
       </c>
+      <c r="S9" s="36">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1911,6 +1951,9 @@
       <c r="R10" s="18">
         <v>2.25</v>
       </c>
+      <c r="S10" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1967,6 +2010,9 @@
       <c r="R11" s="18">
         <v>2</v>
       </c>
+      <c r="S11" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2045,8 +2091,8 @@
         <v>130.80000000000001</v>
       </c>
       <c r="J15" s="37">
-        <f>B15/2</f>
-        <v>18</v>
+        <f>S3+B15/2</f>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
         <v>78</v>
@@ -2089,8 +2135,8 @@
         <v>183.4</v>
       </c>
       <c r="J16" s="37">
-        <f t="shared" ref="J16:J23" si="0">B16/2</f>
-        <v>16.5</v>
+        <f t="shared" ref="J16:J23" si="0">S4+B16/2</f>
+        <v>20.5</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>81</v>
@@ -2147,7 +2193,7 @@
       </c>
       <c r="J17" s="37">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
         <v>86</v>
@@ -2191,7 +2237,7 @@
       </c>
       <c r="J18" s="37">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="K18" t="s">
         <v>187</v>
@@ -2235,7 +2281,7 @@
       </c>
       <c r="J19" s="37">
         <f t="shared" si="0"/>
-        <v>38.5</v>
+        <v>44.5</v>
       </c>
       <c r="K19" t="s">
         <v>186</v>
@@ -2279,7 +2325,7 @@
       </c>
       <c r="J20" s="37">
         <f t="shared" si="0"/>
-        <v>39.5</v>
+        <v>45.5</v>
       </c>
       <c r="K20" t="s">
         <v>87</v>
@@ -2323,7 +2369,7 @@
       </c>
       <c r="J21" s="37">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
         <v>185</v>
@@ -2367,7 +2413,7 @@
       </c>
       <c r="J22" s="37">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
         <v>109</v>
@@ -2411,7 +2457,7 @@
       </c>
       <c r="J23" s="37">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="K23" t="s">
         <v>79</v>
@@ -2431,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
